--- a/PubliData/excel/group.xlsx
+++ b/PubliData/excel/group.xlsx
@@ -1,71 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Group" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PG000002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>华中区组</t>
+  </si>
+  <si>
     <t>PG000003</t>
   </si>
   <si>
+    <t>华南区组</t>
+  </si>
+  <si>
     <t>PG000004</t>
   </si>
   <si>
+    <t>华东区组</t>
+  </si>
+  <si>
     <t>PG000005</t>
   </si>
   <si>
-    <t>华中区组</t>
-  </si>
-  <si>
-    <t>华南区组</t>
-  </si>
-  <si>
-    <t>华东区组</t>
-  </si>
-  <si>
     <t>华北区组</t>
   </si>
   <si>
+    <t>PG000006</t>
+  </si>
+  <si>
     <t>海外业务组</t>
   </si>
   <si>
+    <t>PG000007</t>
+  </si>
+  <si>
     <t>总部</t>
   </si>
   <si>
-    <t>PG000006</t>
-  </si>
-  <si>
-    <t>PG000007</t>
+    <t>组编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +115,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -160,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,9 +197,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,70 +408,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -475,4 +478,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>